--- a/mbs-perturbation/mega/welm/smote/WELM_lin_smote_results.xlsx
+++ b/mbs-perturbation/mega/welm/smote/WELM_lin_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.8195266272189349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7248677248677249</v>
+        <v>0.8125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8106508875739645</v>
+        <v>0.8099688473520249</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8370341457773152</v>
+        <v>0.8728405898876406</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8106508875739645</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.7528735632183908</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8579881656804734</v>
+        <v>0.803680981595092</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8819434372733865</v>
+        <v>0.892381553125876</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8145161290322581</v>
+        <v>0.7928994082840237</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7473684210526316</v>
+        <v>0.7738095238095238</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8045325779036827</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8327212261422788</v>
+        <v>0.8780287114845938</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8247978436657682</v>
+        <v>0.849112426035503</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7362637362637363</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8048048048048048</v>
+        <v>0.8316831683168318</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8480580266294553</v>
+        <v>0.9134615384615384</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7512953367875648</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8343569889969145</v>
+        <v>0.8901441371250487</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8299118917195607</v>
+        <v>0.8159763313609467</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7576733295086172</v>
+        <v>0.7823162554146327</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8167063983036963</v>
+        <v>0.8096053199915103</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8468227649638701</v>
+        <v>0.8893713060169395</v>
       </c>
     </row>
   </sheetData>
